--- a/INTLINE/data/576/SGSE/Straits Times Index - Daily.xlsx
+++ b/INTLINE/data/576/SGSE/Straits Times Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PRN2"/>
+  <dimension ref="A1:PRT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56844,15 +56844,45 @@
       </c>
       <c r="PRL1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="PRM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="PRN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="PRO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="PRP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="PRQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="PRR1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="PRM1" s="1" t="inlineStr">
+      <c r="PRS1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="PRN1" s="1" t="inlineStr">
+      <c r="PRT1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -89942,19 +89972,37 @@
         <v>3348.46</v>
       </c>
       <c r="PRK2" t="n">
-        <v>3361.99</v>
-      </c>
-      <c r="PRL2" t="inlineStr">
+        <v>3361.11</v>
+      </c>
+      <c r="PRL2" t="n">
+        <v>3339.59</v>
+      </c>
+      <c r="PRM2" t="n">
+        <v>3322.05</v>
+      </c>
+      <c r="PRN2" t="n">
+        <v>3320.67</v>
+      </c>
+      <c r="PRO2" t="n">
+        <v>3335.09</v>
+      </c>
+      <c r="PRP2" t="n">
+        <v>3356.9</v>
+      </c>
+      <c r="PRQ2" t="n">
+        <v>3354.01</v>
+      </c>
+      <c r="PRR2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="PRM2" t="inlineStr">
+      <c r="PRS2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="PRN2" t="inlineStr">
+      <c r="PRT2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>

--- a/INTLINE/data/576/SGSE/Straits Times Index - Daily.xlsx
+++ b/INTLINE/data/576/SGSE/Straits Times Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PTB2"/>
+  <dimension ref="A1:PTE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57044,15 +57044,30 @@
       </c>
       <c r="PSZ1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="PTA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="PTB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="PTC1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="PTA1" s="1" t="inlineStr">
+      <c r="PTD1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="PTB1" s="1" t="inlineStr">
+      <c r="PTE1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -90262,19 +90277,28 @@
         <v>3117.48</v>
       </c>
       <c r="PSY2" t="n">
-        <v>3102.48</v>
-      </c>
-      <c r="PSZ2" t="inlineStr">
+        <v>3093.31</v>
+      </c>
+      <c r="PSZ2" t="n">
+        <v>3092.8</v>
+      </c>
+      <c r="PTA2" t="n">
+        <v>3111.65</v>
+      </c>
+      <c r="PTB2" t="n">
+        <v>3128</v>
+      </c>
+      <c r="PTC2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="PTA2" t="inlineStr">
+      <c r="PTD2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="PTB2" t="inlineStr">
+      <c r="PTE2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>
